--- a/ChildExperiment/Eyes/SubjData/7YQUD/TK-37-m-u-b.xlsx
+++ b/ChildExperiment/Eyes/SubjData/7YQUD/TK-37-m-u-b.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="260" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Onset_Offset" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>00:09:35:00</t>
   </si>
   <si>
-    <t>TK-37</t>
+    <t>so24</t>
   </si>
 </sst>
 </file>
@@ -225,6 +225,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
